--- a/medicine/Enfance/Jacqueline_Cervon/Jacqueline_Cervon.xlsx
+++ b/medicine/Enfance/Jacqueline_Cervon/Jacqueline_Cervon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline Cervon, née Jacqueline Sené le 6 juillet 1924 à Cervon et morte le 7 juillet 2014 à Lormes[1], est une auteure française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline Cervon, née Jacqueline Sené le 6 juillet 1924 à Cervon et morte le 7 juillet 2014 à Lormes, est une auteure française.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Sené est d'origine de la Nièvre. Elle séjourne huit ans à Djibouti en Afrique orientale, puis elle s'établit  en Bourgogne.
 Elle commence à écrire vers 1960, prenant comme pseudonyme le nom de son village natal. 
 Claude Bron écrit en 1972 que Jacqueline Cervon est « l'écrivain qui aura le plus contribué à la compréhension internationale par la connaissance des enfants du monde qui en est le thème de ses romans. » Il note aussi « le sens de la fraternité et de solidarité humaines qui est le message implicite de toutes les aventures, de tous les récits, de toutes les relations de voyage. »
 Elle publie également des livres destinés au public adolescent, notamment en investiguant la compréhension des difficultés d'adaptation des peuples africains ou orientaux au monde occidental.
 La plupart de ses quarante romans ont été publiés par les éditions G. P. (collection Rouge et Or, puis chez Magnard, Duculot, Rageot et l'École des loisirs.
-« J'écris parce que j'ai envie d'écrire […]. J'espère ainsi ouvrir mes lecteurs à la connaissance des autres et faire exploser le cadre de leurs rêves et de leurs réflexions, en un mot, les amener à se considérer comme les enfants de la planète[2]. »
+« J'écris parce que j'ai envie d'écrire […]. J'espère ainsi ouvrir mes lecteurs à la connaissance des autres et faire exploser le cadre de leurs rêves et de leurs réflexions, en un mot, les amener à se considérer comme les enfants de la planète. »
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Lac aux sortilèges — coll. « Spirale », ill. de Xavier Saint-Justh, G. P., 1961
 Ali, Jean-Luc et la gazelle — coll. « Rouge et Or », Série Dauphine no 182, ill. M. Berthoumeyrou, G.P, 1963  (ISBN 2261002076)
@@ -555,7 +571,7 @@
 Le Coquillage de Catissou — coll. « Fantasia », ill. Stanislas Mazure, Magnard, 1965
 Sélim, le petit marchand de bonheur — coll. « Rouge et Or Dauphine », ill. Michel Jouin, G.P., 1966
 Francesco - coll. « Rouge et Or Souveraine » no 674, G.P., 1966
-Quand la terre trembla à Skopje[3] — coll. « Super 1000 », ill. Michel Jouin, G.P., 1966
+Quand la terre trembla à Skopje — coll. « Super 1000 », ill. Michel Jouin, G.P., 1966
 Belle Agao — coll. « Fantasia », ill. Stanislas Mazure, Magnard, 1967. Réédition en 1979
 L'Aiglon d'Ouarzazate — coll. « Bibliothèque de l'amitié Aventure », ill. Françoise Boudignon, Éditions Rageot, 1968 (Prix Jeunesse, 1968)
 Les Pigeons d'Urgup — coll. « Spirale » no 447, ill. Bertrand, G.P., 1968
@@ -573,7 +589,7 @@
 Djinn la malice — coll. « Rouge et Or Dauphine », ill. Jean Retailleau, G.P., 1972  (ISBN 2261002092). Réédition coll. « Le Livre de Poche Jeunesse », Hachette Jeunesse, 1981. Réédition en 1988
 Le Nain et le Baobab — coll. « Super 1000 », ill. Jean Retailleau, G.P., 1972 (Diplôme du meilleur livre Loisirs Jeunes)
 Le Tambour des sables — coll. « Super 1000 », ill. Jean Reschofsky, G.P., 1972. Réédition coll. « Pocket » no 1086, Pocket, 1974  (ISBN 2801107492) (Mention au Prix européen de la Ville de Trente)
-Diango de l'île verte — coll. « Rouge et Or » no 277, ill. Jean Retailleau, G.P, 1973  (ISBN 9782261002108), traduit en espagnol[4]
+Diango de l'île verte — coll. « Rouge et Or » no 277, ill. Jean Retailleau, G.P, 1973  (ISBN 9782261002108), traduit en espagnol
 Le Chasseur au lasso — coll. « Super 1000 », ill. Jean Retailleau, G.P., 1973 (Grand Prix de littérature pour la Jeunesse de la communauté radiophonique des programmes de langue française)
 Coumba du pays oublié des pluies — coll. « Rouge et Or Dauphine », ill. Jean Retailleau, G.P., 1974 (Diplôme du meilleur livre Loisirs Jeunes). Réédition Bibliothèque Rouge et Or no 325, 1980
 La Jarre percée — coll. « Grand Angle », G.P., 1975
@@ -617,11 +633,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1965 : prix Sobrier-Arnould de l’Académie française pour Ali, Jean-Luc et la Gazelle[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1965 : prix Sobrier-Arnould de l’Académie française pour Ali, Jean-Luc et la Gazelle
 1967 : Grand Prix de la Fédération des parents d'élèves des lycées et des collèges pour Le Trésor de Nikos
-1968 : Prix jeunesse pour L'Aiglon d'Ouarzazate[6]
+1968 : Prix jeunesse pour L'Aiglon d'Ouarzazate
 1968 : Prix européen « Ville de Caorle » pour Le Naufragé de Rhodes</t>
         </is>
       </c>
